--- a/JobAlert - Copy.xlsx
+++ b/JobAlert - Copy.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\Projects\Focux\Focux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{B193496D-B143-45D3-B9FD-E48CAAF56015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD733941-59D1-4A10-9CD1-EF45DCC73E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Index</t>
   </si>
@@ -81,12 +81,39 @@
   </si>
   <si>
     <t>Job_CSS_Sel</t>
+  </si>
+  <si>
+    <t>//*[@id="usercentrics-root"]</t>
+  </si>
+  <si>
+    <t>data-testid="uc-accept-all-button"</t>
+  </si>
+  <si>
+    <t>class="item-title"</t>
+  </si>
+  <si>
+    <t>/html/body/header/dock-privacy-settings</t>
+  </si>
+  <si>
+    <t>class="a-button a-button--primary -without-icon"</t>
+  </si>
+  <si>
+    <t>class="A-JobPanel__title"</t>
+  </si>
+  <si>
+    <t>LoadTime_s</t>
+  </si>
+  <si>
+    <t>class="css-qiqmbt"</t>
+  </si>
+  <si>
+    <t>id="JOBRESULTLIST--jobList"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,12 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -466,22 +492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -491,7 +516,7 @@
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
@@ -504,10 +529,10 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -517,8 +542,17 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -528,8 +562,17 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -542,6 +585,9 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -550,16 +596,22 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3" location="/SEARCH/SIMPLE/"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{194CCAA1-18FD-445C-A039-7AB48874E9B7}"/>
+    <hyperlink ref="C5" r:id="rId2" location="/SEARCH/SIMPLE/" xr:uid="{EF58474E-0777-40D2-9489-DCB1B0F51131}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{632E38C5-EA31-4409-94BA-AD6FB102AB52}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{8D2150E3-0FF3-40A4-B80C-9EBD646D1831}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
